--- a/Planilhas/Aprendendoalerplanilhas.xlsx
+++ b/Planilhas/Aprendendoalerplanilhas.xlsx
@@ -2,41 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -57,36 +41,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -443,166 +407,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E39"/>
+  <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
     <row r="3"/>
     <row r="4"/>
-    <row r="5" ht="12.8" customHeight="1" s="2">
-      <c r="B5" s="3" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Dia 01/02/2020</t>
         </is>
       </c>
     </row>
     <row r="6"/>
-    <row r="7" ht="12.8" customHeight="1" s="2">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aluno 1</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aluno 1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aluno 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Aluno 3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aluno 4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Aluno 5</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="2">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Aluno 6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Aluno 7</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Aluno 8</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Aluno 9</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Aluno 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Aluno 2</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>SIM:</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="2">
-      <c r="B9" s="3" t="inlineStr">
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Aluno 3</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NAO:</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="2">
-      <c r="B10" s="3" t="inlineStr">
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Aluno 4</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="2">
-      <c r="B11" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Aluno 5</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="2">
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Aluno 6</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="2">
-      <c r="B13" s="3" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Aluno 7</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="12.8" customHeight="1" s="2">
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Aluno 8</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="12.8" customHeight="1" s="2">
-      <c r="B15" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aluno 9</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="12.8" customHeight="1" s="2">
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Aluno 10</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
@@ -612,80 +675,80 @@
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>
-    <row r="21" ht="12.8" customHeight="1" s="2">
-      <c r="B21" s="3" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Dia 02/02/2020</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.8" customHeight="1" s="2">
-      <c r="B22" s="3" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aluno 1</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.8" customHeight="1" s="2">
-      <c r="B23" s="3" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aluno 2</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.8" customHeight="1" s="2">
-      <c r="B24" s="3" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aluno 3</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="12.8" customHeight="1" s="2">
-      <c r="B25" s="3" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aluno 4</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="12.8" customHeight="1" s="2">
-      <c r="B26" s="3" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aluno 5</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.8" customHeight="1" s="2">
-      <c r="B27" s="3" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aluno 6</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
@@ -694,56 +757,56 @@
     <row r="28"/>
     <row r="29"/>
     <row r="30"/>
-    <row r="31" ht="12.8" customHeight="1" s="2">
-      <c r="B31" s="3" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Dia 03/02/2020</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.8" customHeight="1" s="2">
-      <c r="B32" s="3" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Aluno 4</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="12.8" customHeight="1" s="2">
-      <c r="B33" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aluno 5</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="12.8" customHeight="1" s="2">
-      <c r="B34" s="3" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aluno 6</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>NAO</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.8" customHeight="1" s="2">
-      <c r="B35" s="3" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aluno 7</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>NAO</t>
         </is>
@@ -754,10 +817,9 @@
     <row r="38"/>
     <row r="39"/>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Página &amp;P</oddFooter>
     <evenHeader/>
